--- a/Tutorial 2/Chapter 3/WebDevelop.xlsx
+++ b/Tutorial 2/Chapter 3/WebDevelop.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\howde\Documents\Repos\MGMT220\Tutorial 2\Chapter 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71AC1C9-E6A0-4DE8-A08B-17600436FEEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Accelerate__Inc.">Data!$B$6:$G$6</definedName>
+    <definedName name="Allen_and_Davis__LLC">Data!$B$7:$G$7</definedName>
+    <definedName name="Blue_Sky_Media">Data!$B$3:$G$3</definedName>
+    <definedName name="Innovate_Technologies">Data!$B$4:$G$4</definedName>
+    <definedName name="Smith_Ventures">Data!$B$8:$G$8</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">12</definedName>
+    <definedName name="Timmler_Company">Data!$B$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -65,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,9 +234,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +286,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,20 +478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B8" sqref="B8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
@@ -455,7 +501,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,7 +524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,7 +547,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,7 +570,7 @@
         <v>16250</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +593,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,7 +616,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -593,7 +639,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -620,6 +666,181 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:G3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:G5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:G6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:G7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{D2BF1853-A16B-4BB6-8FB3-9444DB4A4CF7}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Smith_Ventures</xm:f>
+              <xm:sqref>H8</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B3BF2426-0136-4ABE-BE5E-EB85205599B9}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Allen_and_Davis__LLC</xm:f>
+              <xm:sqref>H7</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{073B88D0-B761-45F8-832A-3F8336C99E05}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Timmler_Company</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{72E9177D-CEEA-4138-B7BE-EC0CFAA84E9A}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Accelerate__Inc.</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{7B3B24A0-DE22-4936-BB9D-2372D0E7ED04}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Innovate_Technologies</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B79C7CAB-7013-4739-A4CE-DFDA3AC69671}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Blue_Sky_Media</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>